--- a/results/bibliographic_production_table.xlsx
+++ b/results/bibliographic_production_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,26 @@
           <t>NP</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Trabalhos publicados em anais de eventos</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Organização de obra publicada</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Capítulo de livro publicado</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Livro publicado</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -526,6 +546,18 @@
       <c r="K2" t="n">
         <v>0</v>
       </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -563,6 +595,18 @@
       <c r="K3" t="n">
         <v>0</v>
       </c>
+      <c r="L3" t="n">
+        <v>22</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -600,6 +644,18 @@
       <c r="K4" t="n">
         <v>0</v>
       </c>
+      <c r="L4" t="n">
+        <v>14</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -637,6 +693,18 @@
       <c r="K5" t="n">
         <v>0</v>
       </c>
+      <c r="L5" t="n">
+        <v>4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -674,6 +742,18 @@
       <c r="K6" t="n">
         <v>0</v>
       </c>
+      <c r="L6" t="n">
+        <v>19</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -711,6 +791,18 @@
       <c r="K7" t="n">
         <v>0</v>
       </c>
+      <c r="L7" t="n">
+        <v>6</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -748,6 +840,18 @@
       <c r="K8" t="n">
         <v>0</v>
       </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -785,6 +889,18 @@
       <c r="K9" t="n">
         <v>0</v>
       </c>
+      <c r="L9" t="n">
+        <v>7</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -822,6 +938,18 @@
       <c r="K10" t="n">
         <v>0</v>
       </c>
+      <c r="L10" t="n">
+        <v>12</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -859,6 +987,18 @@
       <c r="K11" t="n">
         <v>0</v>
       </c>
+      <c r="L11" t="n">
+        <v>3</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -896,6 +1036,18 @@
       <c r="K12" t="n">
         <v>0</v>
       </c>
+      <c r="L12" t="n">
+        <v>5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -933,6 +1085,18 @@
       <c r="K13" t="n">
         <v>0</v>
       </c>
+      <c r="L13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -970,6 +1134,18 @@
       <c r="K14" t="n">
         <v>0</v>
       </c>
+      <c r="L14" t="n">
+        <v>26</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1005,6 +1181,18 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>0</v>
       </c>
     </row>

--- a/results/bibliographic_production_table.xlsx
+++ b/results/bibliographic_production_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1150,49 +1150,147 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>Reginaldo Fidelis</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Rogerio Tondato</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>6</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>Willian Massami Watanabe</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>0</v>
       </c>
     </row>
